--- a/Data/aearep-1443/candidatepackages.xlsx
+++ b/Data/aearep-1443/candidatepackages.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -43,78 +40,63 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>surface</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>usepackage</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
-    <t>levels</t>
-  </si>
-  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>find</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>bmi</t>
   </si>
   <si>
     <t>mca</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>frm</t>
   </si>
   <si>
-    <t>screen</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>effects</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>next</t>
   </si>
   <si>
     <t>roman</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>cal</t>
   </si>
   <si>
@@ -136,24 +118,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1443</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1443/120902</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1443/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>basic_cleaning_covariates.do</t>
   </si>
   <si>
@@ -209,9 +179,6 @@
   </si>
   <si>
     <t>write_tablereducedforminsightspaper.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -255,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -263,13 +230,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -277,7 +244,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -289,7 +256,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -301,7 +268,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -313,7 +280,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -325,7 +292,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -337,7 +304,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -349,7 +316,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -361,7 +328,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -373,10 +340,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -385,10 +352,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>420</v>
+        <v>539</v>
       </c>
       <c r="C11">
-        <v>0.13925729691982269</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D11"/>
     </row>
@@ -397,10 +364,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="C12">
-        <v>0.16710875928401947</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D12"/>
     </row>
@@ -409,10 +376,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C13">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D13"/>
     </row>
@@ -421,10 +388,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>565</v>
+        <v>706</v>
       </c>
       <c r="C14">
-        <v>0.18733422458171844</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D14"/>
     </row>
@@ -433,10 +400,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C15">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D15"/>
     </row>
@@ -445,10 +412,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>594</v>
+        <v>739</v>
       </c>
       <c r="C16">
-        <v>0.19694960117340088</v>
+        <v>0.24429751932621002</v>
       </c>
       <c r="D16"/>
     </row>
@@ -457,10 +424,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="C17">
-        <v>0.23010610044002533</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D17"/>
     </row>
@@ -469,10 +436,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>698</v>
+        <v>978</v>
       </c>
       <c r="C18">
-        <v>0.23143236339092255</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D18"/>
     </row>
@@ -481,10 +448,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>1201</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.39702478051185608</v>
       </c>
       <c r="D19"/>
     </row>
@@ -493,10 +460,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>879</v>
+        <v>1252</v>
       </c>
       <c r="C20">
-        <v>0.29144561290740967</v>
+        <v>0.41388431191444397</v>
       </c>
       <c r="D20"/>
     </row>
@@ -505,10 +472,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C21">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D21"/>
     </row>
@@ -517,10 +484,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1124</v>
+        <v>1474</v>
       </c>
       <c r="C22">
-        <v>0.37267905473709106</v>
+        <v>0.48727273941040039</v>
       </c>
       <c r="D22"/>
     </row>
@@ -529,10 +496,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1193</v>
+        <v>1497</v>
       </c>
       <c r="C23">
-        <v>0.39555701613426208</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D23"/>
     </row>
@@ -541,10 +508,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1388</v>
+        <v>1500</v>
       </c>
       <c r="C24">
-        <v>0.46021220088005066</v>
+        <v>0.49586775898933411</v>
       </c>
       <c r="D24"/>
     </row>
@@ -553,10 +520,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1409</v>
+        <v>1724</v>
       </c>
       <c r="C25">
-        <v>0.46717506647109985</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D25"/>
     </row>
@@ -565,10 +532,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1420</v>
+        <v>1880</v>
       </c>
       <c r="C26">
-        <v>0.47082227468490601</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D26"/>
     </row>
@@ -577,10 +544,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1472</v>
+        <v>1937</v>
       </c>
       <c r="C27">
-        <v>0.48806366324424744</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D27"/>
     </row>
@@ -589,10 +556,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1660</v>
+        <v>2259</v>
       </c>
       <c r="C28">
-        <v>0.55039787292480469</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D28"/>
     </row>
@@ -601,10 +568,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1745</v>
+        <v>2436</v>
       </c>
       <c r="C29">
-        <v>0.57858091592788696</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D29"/>
     </row>
@@ -613,84 +580,12 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1798</v>
+        <v>2518</v>
       </c>
       <c r="C30">
-        <v>0.5961538553237915</v>
+        <v>0.83239668607711792</v>
       </c>
       <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1817</v>
-      </c>
-      <c r="C31">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1859</v>
-      </c>
-      <c r="C32">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1890</v>
-      </c>
-      <c r="C33">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1963</v>
-      </c>
-      <c r="C34">
-        <v>0.65086209774017334</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2424</v>
-      </c>
-      <c r="C35">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2678</v>
-      </c>
-      <c r="C36">
-        <v>0.88793104887008667</v>
-      </c>
-      <c r="D36"/>
     </row>
   </sheetData>
 </worksheet>
@@ -698,191 +593,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
